--- a/data/backtest_evaluation_results.xlsx
+++ b/data/backtest_evaluation_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roman\Documents\20_Git_workspace\VP2\vp2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DA9E4743-7F24-4F20-A549-BBD6F75BF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573701E1-64C0-47B8-AC60-C149875164C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="5475" yWindow="2220" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="backtest_evaluation_results" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -834,25 +834,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="16" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="16" fillId="33" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="33" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -925,6 +913,19 @@
     <xf numFmtId="4" fontId="16" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="16" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="16" fillId="35" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="34" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1279,11 +1280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1294,1062 +1295,1062 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="52">
+      <c r="C1" s="48">
         <v>2014</v>
       </c>
-      <c r="D1" s="53">
+      <c r="D1" s="49">
         <v>2015</v>
       </c>
-      <c r="E1" s="53">
+      <c r="E1" s="49">
         <v>2016</v>
       </c>
-      <c r="F1" s="53">
+      <c r="F1" s="49">
         <v>2017</v>
       </c>
-      <c r="G1" s="54">
+      <c r="G1" s="50">
         <v>2018</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="56">
+      <c r="I1" s="52">
         <v>2019</v>
       </c>
-      <c r="J1" s="57">
+      <c r="J1" s="53">
         <v>2020</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="59">
+      <c r="L1" s="55">
         <v>2021</v>
       </c>
-      <c r="M1" s="60">
+      <c r="M1" s="56">
         <v>2022</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="N1" s="57" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="7">
         <v>1.59</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>0.92</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>2.77</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="20">
         <v>-0.22</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="32">
         <v>1.1299999999999999</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="16">
         <v>2.65</v>
       </c>
-      <c r="J2" s="31">
+      <c r="J2" s="27">
         <v>1</v>
       </c>
-      <c r="K2" s="41">
+      <c r="K2" s="37">
         <v>1.82</v>
       </c>
-      <c r="L2" s="28">
+      <c r="L2" s="24">
         <v>1.96</v>
       </c>
-      <c r="M2" s="45">
+      <c r="M2" s="41">
         <v>-0.5</v>
       </c>
-      <c r="N2" s="49">
+      <c r="N2" s="45">
         <v>0.73</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="79"/>
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="8">
         <v>1.47</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>0.45</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>3.29</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="31">
         <v>0.44</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="33">
         <v>1.36</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="60">
         <v>3.13</v>
       </c>
-      <c r="J3" s="65">
+      <c r="J3" s="61">
         <v>1.1599999999999999</v>
       </c>
-      <c r="K3" s="66">
+      <c r="K3" s="62">
         <v>2.15</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="25">
         <v>1.7</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3" s="42">
         <v>-0.53</v>
       </c>
-      <c r="N3" s="50">
+      <c r="N3" s="46">
         <v>0.57999999999999996</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="79"/>
+      <c r="B4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="8">
         <v>1.58</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>0.41</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>3.25</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="21">
         <v>0.16</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="33">
         <v>1.3</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="17">
         <v>2.77</v>
       </c>
-      <c r="J4" s="32">
+      <c r="J4" s="28">
         <v>1.05</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="38">
         <v>1.91</v>
       </c>
-      <c r="L4" s="29">
+      <c r="L4" s="25">
         <v>1.82</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4" s="42">
         <v>-0.48</v>
       </c>
-      <c r="N4" s="50">
+      <c r="N4" s="46">
         <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="79"/>
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="8">
         <v>1.56</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>0.39</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>1.05</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>3.3</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="21">
         <v>0.09</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="33">
         <v>1.28</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="17">
         <v>2.69</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="28">
         <v>1.06</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="38">
         <v>1.87</v>
       </c>
-      <c r="L5" s="29">
+      <c r="L5" s="25">
         <v>1.87</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5" s="42">
         <v>-0.4</v>
       </c>
-      <c r="N5" s="50">
+      <c r="N5" s="46">
         <v>0.73</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="79"/>
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="9">
         <v>1.95</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>0.66</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>0.96</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>3.47</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="21">
         <v>0.41</v>
       </c>
-      <c r="H6" s="38">
+      <c r="H6" s="34">
         <v>1.49</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="17">
         <v>2.92</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="28">
         <v>1.1399999999999999</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="38">
         <v>2.0299999999999998</v>
       </c>
-      <c r="L6" s="29">
+      <c r="L6" s="25">
         <v>1.87</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6" s="42">
         <v>-0.47</v>
       </c>
-      <c r="N6" s="50">
+      <c r="N6" s="46">
         <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="80"/>
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>1.53</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>0.24</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>1.18</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>3.06</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="22">
         <v>-0.24</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="35">
         <v>1.1499999999999999</v>
       </c>
-      <c r="I7" s="22">
+      <c r="I7" s="18">
         <v>2.37</v>
       </c>
-      <c r="J7" s="33">
+      <c r="J7" s="29">
         <v>0.63</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="39">
         <v>1.5</v>
       </c>
-      <c r="L7" s="67">
+      <c r="L7" s="63">
         <v>2.17</v>
       </c>
-      <c r="M7" s="68">
+      <c r="M7" s="64">
         <v>-0.35</v>
       </c>
-      <c r="N7" s="69">
+      <c r="N7" s="65">
         <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>2.09</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>0.84</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>1.24</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="6">
         <v>4</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="23">
         <v>-0.28999999999999998</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="36">
         <v>1.58</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="19">
         <v>3.52</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="30">
         <v>1.0900000000000001</v>
       </c>
-      <c r="K8" s="44">
+      <c r="K8" s="40">
         <v>2.2999999999999998</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="26">
         <v>2.87</v>
       </c>
-      <c r="M8" s="48">
+      <c r="M8" s="44">
         <v>-0.82</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="47">
         <v>1.02</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="79"/>
+      <c r="B9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>0.66</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1.52</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>4.75</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="31">
         <v>0.59</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="33">
         <v>1.91</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="60">
         <v>4.1500000000000004</v>
       </c>
-      <c r="J9" s="65">
+      <c r="J9" s="61">
         <v>1.25</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="62">
         <v>2.7</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="25">
         <v>2.5299999999999998</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="42">
         <v>-0.89</v>
       </c>
-      <c r="N9" s="50">
+      <c r="N9" s="46">
         <v>0.82</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="79"/>
+      <c r="B10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="8">
         <v>2.09</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>0.59</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>1.55</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>4.83</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="21">
         <v>0.22</v>
       </c>
-      <c r="H10" s="37">
+      <c r="H10" s="33">
         <v>1.85</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="17">
         <v>3.77</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="28">
         <v>1.1299999999999999</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="38">
         <v>2.4500000000000002</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="25">
         <v>2.69</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="42">
         <v>-0.79</v>
       </c>
-      <c r="N10" s="50">
+      <c r="N10" s="46">
         <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="79"/>
+      <c r="B11" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="8">
         <v>2.09</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1.39</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>4.7</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="21">
         <v>0.12</v>
       </c>
-      <c r="H11" s="37">
+      <c r="H11" s="33">
         <v>1.77</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="17">
         <v>3.68</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="28">
         <v>1.1499999999999999</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="38">
         <v>2.42</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="25">
         <v>2.76</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="42">
         <v>-0.66</v>
       </c>
-      <c r="N11" s="50">
+      <c r="N11" s="46">
         <v>1.05</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="79"/>
+      <c r="B12" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="9">
         <v>2.58</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.97</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1.33</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>5.19</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="21">
         <v>0.54</v>
       </c>
-      <c r="H12" s="38">
+      <c r="H12" s="34">
         <v>2.12</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="17">
         <v>4.09</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="28">
         <v>1.23</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="38">
         <v>2.66</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="25">
         <v>2.76</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="42">
         <v>-0.78</v>
       </c>
-      <c r="N12" s="50">
+      <c r="N12" s="46">
         <v>0.99</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="80"/>
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="10">
         <v>2.02</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>0.34</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>1.52</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="4">
         <v>4.34</v>
       </c>
-      <c r="G13" s="26">
+      <c r="G13" s="22">
         <v>-0.3</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="35">
         <v>1.58</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="18">
         <v>3.01</v>
       </c>
-      <c r="J13" s="33">
+      <c r="J13" s="29">
         <v>0.73</v>
       </c>
-      <c r="K13" s="43">
+      <c r="K13" s="39">
         <v>1.87</v>
       </c>
-      <c r="L13" s="67">
+      <c r="L13" s="63">
         <v>3.15</v>
       </c>
-      <c r="M13" s="68">
+      <c r="M13" s="64">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="65">
         <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="70">
+      <c r="C14" s="66">
         <v>-0.08</v>
       </c>
-      <c r="D14" s="71">
+      <c r="D14" s="67">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="6">
         <v>-0.19</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="6">
         <v>-0.05</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="23">
         <v>-0.4</v>
       </c>
-      <c r="H14" s="72">
+      <c r="H14" s="68">
         <v>-0.17</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="19">
         <v>-0.09</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="72">
         <v>-0.54</v>
       </c>
-      <c r="K14" s="44">
+      <c r="K14" s="40">
         <v>-0.31</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="26">
         <v>-0.09</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="44">
         <v>-0.26</v>
       </c>
-      <c r="N14" s="78">
+      <c r="N14" s="74">
         <v>-0.17</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="8">
         <v>-0.09</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>-0.16</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>-0.23</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G15" s="35">
+      <c r="G15" s="31">
         <v>-0.36</v>
       </c>
-      <c r="H15" s="37">
+      <c r="H15" s="33">
         <v>-0.18</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J15" s="32">
+      <c r="J15" s="28">
         <v>-0.61</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="38">
         <v>-0.34</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="25">
         <v>-0.1</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="42">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="N15" s="50">
+      <c r="N15" s="46">
         <v>-0.19</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
+      <c r="A16" s="79"/>
+      <c r="B16" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="9">
         <v>-0.08</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>-0.2</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>-0.05</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="21">
         <v>-0.41</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H16" s="33">
         <v>-0.18</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J16" s="32">
+      <c r="J16" s="28">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="38">
         <v>-0.31</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="25">
         <v>-0.09</v>
       </c>
-      <c r="M16" s="77">
+      <c r="M16" s="73">
         <v>-0.25</v>
       </c>
-      <c r="N16" s="79">
+      <c r="N16" s="75">
         <v>-0.17</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="18" t="s">
+      <c r="A17" s="79"/>
+      <c r="B17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="8">
         <v>-0.1</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="1">
         <v>-0.16</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>-0.22</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>-0.04</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="21">
         <v>-0.38</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H17" s="33">
         <v>-0.18</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J17" s="65">
+      <c r="J17" s="61">
         <v>-0.54</v>
       </c>
-      <c r="K17" s="66">
+      <c r="K17" s="62">
         <v>-0.3</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="25">
         <v>-0.1</v>
       </c>
-      <c r="M17" s="77">
+      <c r="M17" s="73">
         <v>-0.25</v>
       </c>
-      <c r="N17" s="79">
+      <c r="N17" s="75">
         <v>-0.17</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="8">
         <v>-0.09</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18" s="1">
         <v>-0.16</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>-0.22</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="21">
         <v>-0.44</v>
       </c>
-      <c r="H18" s="37">
+      <c r="H18" s="33">
         <v>-0.2</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="60">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J18" s="32">
+      <c r="J18" s="28">
         <v>-0.59</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="38">
         <v>-0.33</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="25">
         <v>-0.09</v>
       </c>
-      <c r="M18" s="46">
+      <c r="M18" s="42">
         <v>-0.26</v>
       </c>
-      <c r="N18" s="79">
+      <c r="N18" s="75">
         <v>-0.17</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="16" t="s">
+      <c r="A19" s="80"/>
+      <c r="B19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="10">
         <v>-0.09</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="5">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="5">
         <v>-0.18</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>-0.04</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="22">
         <v>-0.39</v>
       </c>
-      <c r="H19" s="73">
+      <c r="H19" s="69">
         <v>-0.17</v>
       </c>
-      <c r="I19" s="74">
+      <c r="I19" s="70">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J19" s="75">
+      <c r="J19" s="71">
         <v>-0.54</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="39">
         <v>-0.31</v>
       </c>
-      <c r="L19" s="67">
+      <c r="L19" s="63">
         <v>-0.08</v>
       </c>
-      <c r="M19" s="47">
+      <c r="M19" s="43">
         <v>-0.27</v>
       </c>
-      <c r="N19" s="69">
+      <c r="N19" s="65">
         <v>-0.17</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>2.31</v>
       </c>
-      <c r="D20" s="80">
+      <c r="D20" s="76">
         <v>0.62</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="3">
         <v>0.69</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="3">
         <v>4.68</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="20">
         <v>-0.09</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="32">
         <v>1.64</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="16">
         <v>3.95</v>
       </c>
-      <c r="J20" s="31">
+      <c r="J20" s="27">
         <v>0.64</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="37">
         <v>2.29</v>
       </c>
-      <c r="L20" s="28">
+      <c r="L20" s="24">
         <v>2.95</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="41">
         <v>-0.46</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="45">
         <v>1.25</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="79"/>
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="8">
         <v>2.09</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="1">
         <v>0.42</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>0.75</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>4.2</v>
       </c>
-      <c r="G21" s="35">
+      <c r="G21" s="31">
         <v>0.19</v>
       </c>
-      <c r="H21" s="37">
+      <c r="H21" s="33">
         <v>1.53</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="60">
         <v>5.6</v>
       </c>
-      <c r="J21" s="32">
+      <c r="J21" s="28">
         <v>0.68</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="62">
         <v>3.14</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="25">
         <v>2.2799999999999998</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="42">
         <v>-0.46</v>
       </c>
-      <c r="N21" s="50">
+      <c r="N21" s="46">
         <v>0.91</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="79"/>
+      <c r="B22" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="12">
+      <c r="C22" s="8">
         <v>2.39</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="1">
         <v>0.44</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>0.82</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>5.25</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="21">
         <v>0.06</v>
       </c>
-      <c r="H22" s="37">
+      <c r="H22" s="33">
         <v>1.79</v>
       </c>
-      <c r="I22" s="21">
+      <c r="I22" s="17">
         <v>5.19</v>
       </c>
-      <c r="J22" s="32">
+      <c r="J22" s="28">
         <v>0.67</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="38">
         <v>2.93</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="25">
         <v>2.75</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="42">
         <v>-0.46</v>
       </c>
-      <c r="N22" s="50">
+      <c r="N22" s="46">
         <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="79"/>
+      <c r="B23" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="12">
+      <c r="C23" s="8">
         <v>1.98</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="1">
         <v>0.38</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>0.73</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="1">
         <v>6.05</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="21">
         <v>0.04</v>
       </c>
-      <c r="H23" s="38">
+      <c r="H23" s="34">
         <v>1.84</v>
       </c>
-      <c r="I23" s="21">
+      <c r="I23" s="17">
         <v>4.93</v>
       </c>
-      <c r="J23" s="65">
+      <c r="J23" s="61">
         <v>0.69</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="38">
         <v>2.81</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="25">
         <v>2.59</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="42">
         <v>-0.4</v>
       </c>
-      <c r="N23" s="50">
+      <c r="N23" s="46">
         <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
+      <c r="A24" s="79"/>
+      <c r="B24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="9">
         <v>2.67</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="1">
         <v>0.61</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>0.63</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="21">
         <v>0.15</v>
       </c>
-      <c r="H24" s="37">
+      <c r="H24" s="33">
         <v>1.73</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="17">
         <v>5.41</v>
       </c>
-      <c r="J24" s="32">
+      <c r="J24" s="28">
         <v>0.68</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="82">
         <v>3.04</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="25">
         <v>2.68</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="42">
         <v>-0.44</v>
       </c>
-      <c r="N24" s="50">
+      <c r="N24" s="46">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="79"/>
+      <c r="B25" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="12">
+      <c r="C25" s="8">
         <v>2.0099999999999998</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="1">
         <v>0.26</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>0.95</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>5.22</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="21">
         <v>-0.1</v>
       </c>
-      <c r="H25" s="37">
+      <c r="H25" s="33">
         <v>1.67</v>
       </c>
-      <c r="I25" s="21">
+      <c r="I25" s="17">
         <v>3.97</v>
       </c>
-      <c r="J25" s="32">
+      <c r="J25" s="28">
         <v>0.45</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="38">
         <v>2.21</v>
       </c>
-      <c r="L25" s="81">
+      <c r="L25" s="77">
         <v>3.58</v>
       </c>
-      <c r="M25" s="77">
+      <c r="M25" s="73">
         <v>-0.3</v>
       </c>
-      <c r="N25" s="79">
+      <c r="N25" s="75">
         <v>1.64</v>
       </c>
     </row>
@@ -2361,5 +2362,6 @@
     <mergeCell ref="A20:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>